--- a/1h_NL_bus_inputV2.xlsx
+++ b/1h_NL_bus_inputV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FAF8D5-EE23-49E0-A687-B026ACA8EFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C52D7D-7013-46EE-8159-53E4E83B0159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="15750" yWindow="0" windowWidth="13155" windowHeight="15585" activeTab="4" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Info &amp; case description</t>
   </si>
@@ -96,9 +96,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>sell</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>should be positve</t>
+  </si>
+  <si>
+    <t>A negative flow indicates a flow from bus with lower index to bus with higher index</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -168,12 +171,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,6 +219,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,6 +295,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>294997</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED578292-0A6C-6425-00C2-C96245106D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="0"/>
+          <a:ext cx="7114897" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64FA4D4-96EF-411F-9568-177C13F4F889}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -591,36 +667,42 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94CD40-7FC0-47C6-AA2A-34706E0CB1A0}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -643,241 +725,734 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" s="12">
+        <v>9999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="12">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>9999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="12">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <v>9999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>13</v>
+      </c>
+      <c r="C19" s="14">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <v>12</v>
+      </c>
+      <c r="C21" s="14">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <v>17</v>
+      </c>
+      <c r="C23" s="14">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14">
+        <v>16</v>
+      </c>
+      <c r="C25" s="14">
+        <v>19</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>21</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <v>21</v>
+      </c>
+      <c r="C28" s="14">
+        <v>22</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14">
+        <v>20</v>
+      </c>
+      <c r="C29" s="14">
+        <v>21</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14">
+        <v>22</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14">
+        <v>24</v>
+      </c>
+      <c r="C33" s="14">
+        <v>25</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14">
+        <v>6</v>
+      </c>
+      <c r="C34" s="14">
+        <v>25</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14">
+        <v>11</v>
+      </c>
+      <c r="C35" s="14">
+        <v>26</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14">
+        <v>26</v>
+      </c>
+      <c r="C36" s="14">
+        <v>27</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14">
+        <v>27</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14">
+        <v>27</v>
+      </c>
+      <c r="C38" s="14">
+        <v>28</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14">
+        <v>9</v>
+      </c>
+      <c r="C39" s="14">
+        <v>28</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14">
+        <v>10</v>
+      </c>
+      <c r="C40" s="14">
+        <v>28</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14">
+        <v>26</v>
+      </c>
+      <c r="C41" s="14">
+        <v>28</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14">
+        <v>15</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>16</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>42</v>
+      </c>
+      <c r="B44" s="14">
+        <v>4</v>
+      </c>
+      <c r="C44" s="14">
+        <v>18</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.27500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -887,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F09800-6293-4D04-974E-A2660D60FC26}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,9 +1506,7 @@
       <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="K1" s="1">
-        <v>8</v>
-      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -958,31 +1531,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -990,69 +1560,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
+      <c r="B4">
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
-      </c>
-      <c r="K4">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1060,34 +1624,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
-      </c>
-      <c r="K5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1095,34 +1656,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1130,53 +1688,544 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.35</v>
+      </c>
+      <c r="D9">
+        <v>0.35</v>
+      </c>
+      <c r="E9">
+        <v>0.35</v>
+      </c>
+      <c r="F9">
+        <v>0.35</v>
+      </c>
+      <c r="G9">
+        <v>0.35</v>
+      </c>
+      <c r="H9">
+        <v>0.35</v>
+      </c>
+      <c r="I9">
+        <v>0.35</v>
+      </c>
+      <c r="J9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0.35</v>
+      </c>
+      <c r="D10">
+        <v>0.35</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>0.35</v>
+      </c>
+      <c r="G10">
+        <v>0.35</v>
+      </c>
+      <c r="H10">
+        <v>0.35</v>
+      </c>
+      <c r="I10">
+        <v>0.35</v>
+      </c>
+      <c r="J10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K7">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>0.3</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>0.8</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>0.4</v>
+      </c>
+      <c r="I20">
+        <v>0.4</v>
+      </c>
+      <c r="J20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0.4</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>0.4</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22">
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+      <c r="I22">
+        <v>0.4</v>
+      </c>
+      <c r="J22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD4635E-F3CD-42BC-8B1B-E03EDBB3871B}">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,8 +2248,7 @@
     <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="50" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
@@ -1234,9 +2282,7 @@
       <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="K1" s="1">
-        <v>8</v>
-      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1285,9 +2331,6 @@
       <c r="J2">
         <v>-1.068568270298822</v>
       </c>
-      <c r="K2">
-        <v>-1.068568270298822</v>
-      </c>
       <c r="AJ2" s="7"/>
     </row>
     <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
@@ -1319,9 +2362,6 @@
         <v>-1.0107461083881799</v>
       </c>
       <c r="J3">
-        <v>-1.0107461083881799</v>
-      </c>
-      <c r="K3">
         <v>-2</v>
       </c>
       <c r="AJ3" s="7"/>
@@ -1357,9 +2397,6 @@
       <c r="J4">
         <v>-3.1816795</v>
       </c>
-      <c r="K4">
-        <v>-3.1816795</v>
-      </c>
       <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -1393,20 +2430,38 @@
       <c r="J5">
         <v>-0.8012904033887005</v>
       </c>
-      <c r="K5">
-        <v>-0.8012904033887005</v>
-      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>-0.21</v>
+      </c>
+      <c r="D6">
+        <v>-0.21</v>
+      </c>
+      <c r="E6">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-0.35</v>
+      </c>
+      <c r="G6">
+        <v>-0.42</v>
+      </c>
+      <c r="H6">
+        <v>-0.52499999999999991</v>
+      </c>
+      <c r="I6">
+        <v>-0.42</v>
+      </c>
+      <c r="J6">
+        <v>-0.27999999999999997</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1424,14 +2479,36 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>-0.09</v>
+      </c>
+      <c r="D7">
+        <v>-0.09</v>
+      </c>
+      <c r="E7">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.15</v>
+      </c>
+      <c r="G7">
+        <v>-0.18</v>
+      </c>
+      <c r="H7">
+        <v>-0.22499999999999998</v>
+      </c>
+      <c r="I7">
+        <v>-0.18</v>
+      </c>
+      <c r="J7">
+        <v>-0.12</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1449,15 +2526,36 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E8">
+        <v>-7.7000000000000013E-2</v>
+      </c>
+      <c r="F8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.10500000000000001</v>
+      </c>
+      <c r="I8">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="J8">
+        <v>-5.6000000000000008E-2</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1475,15 +2573,36 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>-0.03</v>
+      </c>
+      <c r="G9">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="J9">
+        <v>-2.4E-2</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1501,14 +2620,36 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>-0.06</v>
+      </c>
+      <c r="G10">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.09</v>
+      </c>
+      <c r="I10">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="J10">
+        <v>-4.8000000000000001E-2</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1525,6 +2666,198 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>-2.9700000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G11">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="H11">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>-2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="D12">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="E12">
+        <v>-9.3500000000000007E-3</v>
+      </c>
+      <c r="F12">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="G12">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>-1.2750000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>-6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="D13">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="E13">
+        <v>-9.3500000000000007E-3</v>
+      </c>
+      <c r="F13">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="G13">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>-1.2750000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>-6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="D14">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="E14">
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="G14">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>-3.19999968E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="D15">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="E15">
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="G15">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>-3.19999968E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="D16">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="E16">
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="G16">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="I16">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="J16">
+        <v>-3.19999968E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L2">
     <sortCondition ref="C2"/>
@@ -1535,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D74D64-A296-4AB8-B318-6B84CFC81D10}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1685,16 +3018,30 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="15">
         <v>-10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>150</v>
       </c>
     </row>
@@ -1705,15 +3052,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB44F85-5F13-4E40-BB24-6694A7B82B38}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1733,59 +3080,7 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>-200</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>-200</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +3093,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1834,7 +3129,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1842,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -1851,16 +3146,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3">
-        <v>-10</v>
+        <v>-200</v>
       </c>
       <c r="G2" s="3">
-        <v>9000</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1868,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1880,13 +3175,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="3">
-        <v>105</v>
+        <v>-180</v>
       </c>
       <c r="G3" s="3">
-        <v>9000</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1896,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660BF70-3B44-43C9-BAAF-3331A4D75E51}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37:AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1934,62 +3229,14 @@
       <c r="I1">
         <v>7</v>
       </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="e">
-        <f>SUM(re!#REF!)</f>
-        <v>#REF!</v>
+      <c r="B2" s="9">
+        <f>SUM(re!C2:C5)</f>
+        <v>-5.7937160117768798</v>
       </c>
       <c r="C2" s="9">
         <f>SUM(re!D2:D5)</f>
@@ -2017,72 +3264,24 @@
       </c>
       <c r="I2" s="9">
         <f>SUM(re!J2:J5)</f>
-        <v>-6.0622842820757015</v>
-      </c>
-      <c r="J2" s="9">
-        <f>SUM(re!K2:K5)</f>
         <v>-7.051538173687522</v>
       </c>
-      <c r="K2" s="9">
-        <f>SUM(re!L2:L5)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <f>SUM(re!M2:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="9">
-        <f>SUM(re!N2:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <f>SUM(re!O2:O5)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <f>SUM(re!P2:P5)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="9">
-        <f>SUM(re!Q2:Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
-        <f>SUM(re!C2:C5)</f>
-        <v>-5.7937160117768798</v>
-      </c>
-      <c r="R2" s="9">
-        <f>SUM(re!S2:S5)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="9">
-        <f>SUM(re!T2:T5)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="9">
-        <f>SUM(re!U2:U5)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="9">
-        <f>SUM(re!V2:V5)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="9">
-        <f>SUM(re!W2:W5)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="9">
-        <f>SUM(re!X2:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="9">
-        <f>SUM(re!Y2:Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="9">
-        <f>SUM(re!Z2:Z5)</f>
-        <v>0</v>
-      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2090,415 +3289,285 @@
       </c>
       <c r="B3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="C3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="D3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="E3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="F3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="G3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="H3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
       <c r="I3">
         <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="J3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="K3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="L3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="M3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="N3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="O3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="P3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="Q3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="R3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="S3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="T3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="U3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="V3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="W3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="X3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="Y3">
-        <f>SUM(chp_max!$C:$C)</f>
-        <v>-19.684000000000001</v>
+        <v>-19.984000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="e">
-        <f>SUM(loads!#REF!)</f>
-        <v>#REF!</v>
+      <c r="B4">
+        <f>SUM(loads!C2:C20)</f>
+        <v>8.5</v>
       </c>
       <c r="C4">
-        <f>SUM(loads!D2:D7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!D2:D20)</f>
+        <v>8.5</v>
       </c>
       <c r="D4">
-        <f>SUM(loads!E2:E7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!E2:E20)</f>
+        <v>8.5</v>
       </c>
       <c r="E4">
-        <f>SUM(loads!F2:F7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!F2:F20)</f>
+        <v>8.5</v>
       </c>
       <c r="F4">
-        <f>SUM(loads!G2:G7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!G2:G20)</f>
+        <v>8.5</v>
       </c>
       <c r="G4">
-        <f>SUM(loads!H2:H7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!H2:H20)</f>
+        <v>8.5</v>
       </c>
       <c r="H4">
-        <f>SUM(loads!I2:I7)</f>
-        <v>11.3</v>
+        <f>SUM(loads!I2:I20)</f>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <f>SUM(loads!J2:J7)</f>
-        <v>11.3</v>
-      </c>
-      <c r="J4">
-        <f>SUM(loads!K2:K7)</f>
-        <v>11.3</v>
-      </c>
-      <c r="K4">
-        <f>SUM(loads!L2:L7)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f>SUM(loads!M2:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>SUM(loads!N2:N7)</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>SUM(loads!O2:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>SUM(loads!P2:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>SUM(loads!Q2:Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>SUM(loads!C2:C7)</f>
-        <v>11.3</v>
-      </c>
-      <c r="R4">
-        <f>SUM(loads!S2:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM(loads!T2:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>SUM(loads!U2:U7)</f>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f>SUM(loads!V2:V7)</f>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f>SUM(loads!W2:W7)</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>SUM(loads!X2:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>SUM(loads!Y2:Y7)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>SUM(loads!Z2:Z7)</f>
-        <v>0</v>
+        <f>SUM(loads!J2:J20)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="e">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
         <f>B4+B2</f>
-        <v>#REF!</v>
+        <v>2.7062839882231202</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:Y6" si="0">C4+C2</f>
-        <v>5.448461826312478</v>
+        <v>2.6484618263124773</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>5.2377157179242992</v>
+        <v>2.4377157179242985</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>5.5390061213129993</v>
+        <v>2.7390061213129986</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>6.4193952179242988</v>
+        <v>3.6193952179242981</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>4.4193952179242988</v>
+        <v>1.6193952179242981</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>4.1075743916118208</v>
+        <v>1.3075743916118201</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="0"/>
-        <v>5.2377157179242992</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="0"/>
-        <v>4.2484618263124787</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5062839882231209</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1.448461826312478</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="e">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9">
         <f>B6+B3</f>
-        <v>#REF!</v>
+        <v>-17.277716011776882</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" ref="C8:Y8" si="1">C6+C3</f>
-        <v>-14.235538173687523</v>
+        <v>-17.335538173687524</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>-14.446284282075702</v>
+        <v>-17.546284282075703</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>-14.144993878687002</v>
+        <v>-17.244993878687005</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>-13.264604782075702</v>
+        <v>-16.364604782075702</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>-15.264604782075702</v>
+        <v>-18.364604782075702</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>-15.576425608388181</v>
+        <v>-18.676425608388183</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>-14.446284282075702</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="1"/>
-        <v>-15.435538173687522</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="P8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="1"/>
-        <v>-14.17771601177688</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="T8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="V8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="W8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="X8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
-      <c r="Y8" s="9">
-        <f t="shared" si="1"/>
-        <v>-19.684000000000001</v>
-      </c>
+        <v>-18.535538173687524</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="7:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z20" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="AA20">
+        <v>0.6</v>
+      </c>
+      <c r="AB20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1.2</v>
+      </c>
+      <c r="AE20">
+        <v>1.5</v>
+      </c>
+      <c r="AF20">
+        <v>1.2</v>
+      </c>
+      <c r="AG20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <f>-Z20*0.35</f>
+        <v>-0.21</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AH24" si="2">-AA20*0.35</f>
+        <v>-0.21</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="2"/>
+        <v>-0.35</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="2"/>
+        <v>-0.42</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
+        <v>-0.52499999999999991</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>-0.42</v>
+      </c>
+      <c r="AG24">
+        <f>-AG20*0.35</f>
+        <v>-0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <f>-Z20*0.15</f>
+        <v>-0.09</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ref="AA25:AH25" si="3">-AA20*0.15</f>
+        <v>-0.09</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>-0.15</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="3"/>
+        <v>-0.18</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="3"/>
+        <v>-0.22499999999999998</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="3"/>
+        <v>-0.18</v>
+      </c>
+      <c r="AG25">
+        <f>-AG20*0.15</f>
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="7:33" x14ac:dyDescent="0.2">
       <c r="I26">
         <v>0</v>
       </c>
@@ -2512,7 +3581,7 @@
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>-400</v>
@@ -2522,6 +3591,370 @@
       </c>
       <c r="P26" t="s">
         <v>3</v>
+      </c>
+      <c r="Z26">
+        <f>-Z20*0.07</f>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26:AH26" si="4">-AA20*0.07</f>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="4"/>
+        <v>-7.7000000000000013E-2</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="4"/>
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="4"/>
+        <v>-0.10500000000000001</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="AG26">
+        <f>-AG20*0.07</f>
+        <v>-5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <f>-0.03*Z20</f>
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28:AH28" si="5">-0.03*AA20</f>
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="5"/>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="5"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="5"/>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="AG28">
+        <f>-0.03*AG20</f>
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <f>Z28*2</f>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ref="AA29:AH29" si="6">AA28*2</f>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="6"/>
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="6"/>
+        <v>-0.06</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="6"/>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="6"/>
+        <v>-0.09</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="6"/>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AG29">
+        <f>AG28*2</f>
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <f>Z28*0.9</f>
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30:AH30" si="7">AA28*0.9</f>
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>-2.9700000000000001E-2</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="7"/>
+        <v>-2.7E-2</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="7"/>
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="7"/>
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="AG30">
+        <f>AG28*0.9</f>
+        <v>-2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>-200</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>-200</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <f>0.0085*-Z20</f>
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ref="AA32:AG33" si="8">0.0085*-AA20</f>
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>-9.3500000000000007E-3</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="8"/>
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>-1.2750000000000001E-2</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="8"/>
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="8"/>
+        <v>-6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="AA33">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="AB33">
+        <v>-9.3500000000000007E-3</v>
+      </c>
+      <c r="AC33">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="AD33">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="AE33">
+        <v>-1.2750000000000001E-2</v>
+      </c>
+      <c r="AF33">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="AG33">
+        <v>-6.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <f>-0.12*Z20</f>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35:AG35" si="9">-0.12*AA20</f>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="9"/>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="9"/>
+        <v>-0.12</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="9"/>
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="9"/>
+        <v>-0.18</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="9"/>
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="9"/>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z37">
+        <f>Z35*0.3333333</f>
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37:AG39" si="10">AA35*0.3333333</f>
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="10"/>
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="10"/>
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="10"/>
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="10"/>
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="10"/>
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="10"/>
+        <v>-3.19999968E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AA38">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AB38">
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="AC38">
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="AD38">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AE38">
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="AF38">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AG38">
+        <v>-3.19999968E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z39">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AA39">
+        <v>-2.39999976E-2</v>
+      </c>
+      <c r="AB39">
+        <v>-4.3999995600000001E-2</v>
+      </c>
+      <c r="AC39">
+        <v>-3.9999995999999996E-2</v>
+      </c>
+      <c r="AD39">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AE39">
+        <v>-5.9999994000000001E-2</v>
+      </c>
+      <c r="AF39">
+        <v>-4.7999995199999999E-2</v>
+      </c>
+      <c r="AG39">
+        <v>-3.19999968E-2</v>
       </c>
     </row>
   </sheetData>
